--- a/odkx/forms/hh_member.xlsx
+++ b/odkx/forms/hh_member.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="503">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -383,6 +383,60 @@
     <t xml:space="preserve">Hang out with friends or relatives </t>
   </si>
   <si>
+    <t xml:space="preserve">bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss_limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss of limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial recovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">breastfeed</t>
   </si>
   <si>
@@ -749,6 +803,81 @@
     <t xml:space="preserve">He/she emigrated</t>
   </si>
   <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
     <t xml:space="preserve">new_member</t>
   </si>
   <si>
@@ -1203,6 +1332,33 @@
   </si>
   <si>
     <t xml:space="preserve">new_hh_member_censed_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_num_times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school_days_unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_occur_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_outcome</t>
   </si>
   <si>
     <t xml:space="preserve">Individual Questionnaire</t>
@@ -1445,7 +1601,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,6 +1636,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1523,7 +1685,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1568,7 +1730,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1601,7 +1767,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1652,10 +1818,10 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.7"/>
   </cols>
@@ -2703,10 +2869,10 @@
   <dimension ref="A1:K998"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.4"/>
@@ -4018,14 +4184,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="1" sqref="B4:C4 A16"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="11.39"/>
   </cols>
   <sheetData>
@@ -4846,73 +5012,73 @@
         <v>119</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>134</v>
@@ -4920,244 +5086,244 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5165,10 +5331,10 @@
         <v>162</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5176,10 +5342,10 @@
         <v>162</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5187,10 +5353,10 @@
         <v>162</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5198,62 +5364,62 @@
         <v>162</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>179</v>
@@ -5261,62 +5427,62 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>190</v>
@@ -5327,54 +5493,54 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="C100" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="C103" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>199</v>
@@ -5382,802 +5548,802 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>200</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>265</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>286</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>292</v>
@@ -6185,131 +6351,131 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C184" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>309</v>
+        <v>89</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>309</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C187" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>312</v>
@@ -6317,10 +6483,10 @@
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>314</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>314</v>
@@ -6328,489 +6494,719 @@
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>322</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>153</v>
+        <v>358</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>154</v>
+        <v>358</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B232" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C255" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7583,13 +7979,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y747"/>
+  <dimension ref="A1:Y755"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -7600,7 +7996,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>9</v>
@@ -7609,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -7635,13 +8031,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7667,10 +8063,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -7696,10 +8092,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -7725,7 +8121,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -8123,16 +8519,16 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -8158,10 +8554,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -8187,7 +8583,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>22</v>
@@ -8216,13 +8612,13 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -8248,7 +8644,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>26</v>
@@ -8312,16 +8708,16 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -8347,10 +8743,10 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8376,7 +8772,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -8408,10 +8804,10 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -8437,7 +8833,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -8466,13 +8862,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -8498,13 +8894,13 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -8530,16 +8926,16 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -8565,10 +8961,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -8594,7 +8990,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>22</v>
@@ -8623,13 +9019,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -8655,13 +9051,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -8687,7 +9083,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>42</v>
@@ -8719,7 +9115,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>26</v>
@@ -8751,10 +9147,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>42</v>
@@ -8786,7 +9182,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>26</v>
@@ -8818,16 +9214,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -8853,13 +9246,13 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="11" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -8885,13 +9278,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -8917,10 +9310,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -8946,13 +9339,13 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -8978,10 +9371,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>398</v>
+        <v>26</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -9007,10 +9403,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -9036,13 +9432,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -9067,14 +9463,17 @@
       <c r="Y47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>272</v>
+        <v>57</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -9099,14 +9498,14 @@
       <c r="Y48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -9131,14 +9530,14 @@
       <c r="Y49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>405</v>
+      <c r="B50" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>406</v>
+        <v>57</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -9163,14 +9562,11 @@
       <c r="Y50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>334</v>
+      <c r="B51" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -9195,14 +9591,14 @@
       <c r="Y51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>26</v>
+      <c r="B52" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -9227,11 +9623,11 @@
       <c r="Y52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>16</v>
+      <c r="B53" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -9256,14 +9652,11 @@
       <c r="Y53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>62</v>
+      <c r="B54" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -9288,14 +9681,14 @@
       <c r="Y54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>26</v>
+      <c r="B55" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -9320,11 +9713,14 @@
       <c r="Y55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>16</v>
+      <c r="B56" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>315</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -9349,14 +9745,14 @@
       <c r="Y56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>26</v>
+      <c r="B57" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -9381,11 +9777,14 @@
       <c r="Y57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>16</v>
+      <c r="B58" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>458</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -9410,14 +9809,14 @@
       <c r="Y58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>42</v>
+      <c r="B59" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>57</v>
+        <v>377</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -9442,14 +9841,14 @@
       <c r="Y59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -9474,10 +9873,10 @@
       <c r="Y60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="5"/>
@@ -9503,10 +9902,10 @@
       <c r="Y61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="0" t="s">
@@ -9535,14 +9934,14 @@
       <c r="Y62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>42</v>
+      <c r="B63" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -9567,14 +9966,11 @@
       <c r="Y63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>62</v>
+      <c r="B64" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -9599,14 +9995,14 @@
       <c r="Y64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>42</v>
+      <c r="B65" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -9631,14 +10027,11 @@
       <c r="Y65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>144</v>
+      <c r="B66" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -9663,14 +10056,14 @@
       <c r="Y66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>26</v>
+      <c r="B67" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -9695,14 +10088,14 @@
       <c r="Y67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>42</v>
+      <c r="B68" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -9727,14 +10120,11 @@
       <c r="Y68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>63</v>
+      <c r="B69" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -9759,14 +10149,14 @@
       <c r="Y69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -9791,14 +10181,14 @@
       <c r="Y70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C71" s="11" t="s">
+      <c r="B71" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -9823,14 +10213,14 @@
       <c r="Y71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -9855,14 +10245,14 @@
       <c r="Y72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -9887,14 +10277,14 @@
       <c r="Y73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>42</v>
+      <c r="B74" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -9919,14 +10309,14 @@
       <c r="Y74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>42</v>
+      <c r="B75" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -9951,11 +10341,14 @@
       <c r="Y75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>22</v>
+      <c r="B76" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -9980,14 +10373,14 @@
       <c r="Y76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -10012,14 +10405,14 @@
       <c r="Y77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -10044,14 +10437,14 @@
       <c r="Y78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -10076,14 +10469,14 @@
       <c r="Y79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>26</v>
+      <c r="B80" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -10108,14 +10501,14 @@
       <c r="Y80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -10140,14 +10533,14 @@
       <c r="Y81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -10172,14 +10565,14 @@
       <c r="Y82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>26</v>
+      <c r="B83" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -10204,14 +10597,11 @@
       <c r="Y83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>57</v>
+      <c r="B84" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -10236,14 +10626,14 @@
       <c r="Y84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>26</v>
+      <c r="B85" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -10268,14 +10658,14 @@
       <c r="Y85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>66</v>
+        <v>362</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -10300,11 +10690,14 @@
       <c r="Y86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>22</v>
+      <c r="B87" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>356</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -10329,6 +10722,15 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -10352,6 +10754,15 @@
       <c r="Y88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>351</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -10375,6 +10786,15 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>363</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -10398,6 +10818,15 @@
       <c r="Y90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -10421,6 +10850,15 @@
       <c r="Y91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -10444,6 +10882,15 @@
       <c r="Y92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>364</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -10467,6 +10914,15 @@
       <c r="Y93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -10490,6 +10946,12 @@
       <c r="Y94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -25255,7 +25717,7 @@
       <c r="X736" s="5"/>
       <c r="Y736" s="5"/>
     </row>
-    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
       <c r="G737" s="5"/>
@@ -25278,7 +25740,7 @@
       <c r="X737" s="5"/>
       <c r="Y737" s="5"/>
     </row>
-    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
       <c r="G738" s="5"/>
@@ -25301,7 +25763,7 @@
       <c r="X738" s="5"/>
       <c r="Y738" s="5"/>
     </row>
-    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
       <c r="G739" s="5"/>
@@ -25324,7 +25786,7 @@
       <c r="X739" s="5"/>
       <c r="Y739" s="5"/>
     </row>
-    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
       <c r="G740" s="5"/>
@@ -25347,7 +25809,7 @@
       <c r="X740" s="5"/>
       <c r="Y740" s="5"/>
     </row>
-    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
       <c r="G741" s="5"/>
@@ -25370,7 +25832,7 @@
       <c r="X741" s="5"/>
       <c r="Y741" s="5"/>
     </row>
-    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
       <c r="G742" s="5"/>
@@ -25393,7 +25855,7 @@
       <c r="X742" s="5"/>
       <c r="Y742" s="5"/>
     </row>
-    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
       <c r="G743" s="5"/>
@@ -25416,7 +25878,7 @@
       <c r="X743" s="5"/>
       <c r="Y743" s="5"/>
     </row>
-    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
       <c r="G744" s="5"/>
@@ -25508,6 +25970,190 @@
       <c r="X747" s="5"/>
       <c r="Y747" s="5"/>
     </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E748" s="5"/>
+      <c r="F748" s="5"/>
+      <c r="G748" s="5"/>
+      <c r="H748" s="5"/>
+      <c r="I748" s="5"/>
+      <c r="J748" s="5"/>
+      <c r="K748" s="5"/>
+      <c r="L748" s="5"/>
+      <c r="M748" s="5"/>
+      <c r="N748" s="5"/>
+      <c r="O748" s="5"/>
+      <c r="P748" s="5"/>
+      <c r="Q748" s="5"/>
+      <c r="R748" s="5"/>
+      <c r="S748" s="5"/>
+      <c r="T748" s="5"/>
+      <c r="U748" s="5"/>
+      <c r="V748" s="5"/>
+      <c r="W748" s="5"/>
+      <c r="X748" s="5"/>
+      <c r="Y748" s="5"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E749" s="5"/>
+      <c r="F749" s="5"/>
+      <c r="G749" s="5"/>
+      <c r="H749" s="5"/>
+      <c r="I749" s="5"/>
+      <c r="J749" s="5"/>
+      <c r="K749" s="5"/>
+      <c r="L749" s="5"/>
+      <c r="M749" s="5"/>
+      <c r="N749" s="5"/>
+      <c r="O749" s="5"/>
+      <c r="P749" s="5"/>
+      <c r="Q749" s="5"/>
+      <c r="R749" s="5"/>
+      <c r="S749" s="5"/>
+      <c r="T749" s="5"/>
+      <c r="U749" s="5"/>
+      <c r="V749" s="5"/>
+      <c r="W749" s="5"/>
+      <c r="X749" s="5"/>
+      <c r="Y749" s="5"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E750" s="5"/>
+      <c r="F750" s="5"/>
+      <c r="G750" s="5"/>
+      <c r="H750" s="5"/>
+      <c r="I750" s="5"/>
+      <c r="J750" s="5"/>
+      <c r="K750" s="5"/>
+      <c r="L750" s="5"/>
+      <c r="M750" s="5"/>
+      <c r="N750" s="5"/>
+      <c r="O750" s="5"/>
+      <c r="P750" s="5"/>
+      <c r="Q750" s="5"/>
+      <c r="R750" s="5"/>
+      <c r="S750" s="5"/>
+      <c r="T750" s="5"/>
+      <c r="U750" s="5"/>
+      <c r="V750" s="5"/>
+      <c r="W750" s="5"/>
+      <c r="X750" s="5"/>
+      <c r="Y750" s="5"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E751" s="5"/>
+      <c r="F751" s="5"/>
+      <c r="G751" s="5"/>
+      <c r="H751" s="5"/>
+      <c r="I751" s="5"/>
+      <c r="J751" s="5"/>
+      <c r="K751" s="5"/>
+      <c r="L751" s="5"/>
+      <c r="M751" s="5"/>
+      <c r="N751" s="5"/>
+      <c r="O751" s="5"/>
+      <c r="P751" s="5"/>
+      <c r="Q751" s="5"/>
+      <c r="R751" s="5"/>
+      <c r="S751" s="5"/>
+      <c r="T751" s="5"/>
+      <c r="U751" s="5"/>
+      <c r="V751" s="5"/>
+      <c r="W751" s="5"/>
+      <c r="X751" s="5"/>
+      <c r="Y751" s="5"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E752" s="5"/>
+      <c r="F752" s="5"/>
+      <c r="G752" s="5"/>
+      <c r="H752" s="5"/>
+      <c r="I752" s="5"/>
+      <c r="J752" s="5"/>
+      <c r="K752" s="5"/>
+      <c r="L752" s="5"/>
+      <c r="M752" s="5"/>
+      <c r="N752" s="5"/>
+      <c r="O752" s="5"/>
+      <c r="P752" s="5"/>
+      <c r="Q752" s="5"/>
+      <c r="R752" s="5"/>
+      <c r="S752" s="5"/>
+      <c r="T752" s="5"/>
+      <c r="U752" s="5"/>
+      <c r="V752" s="5"/>
+      <c r="W752" s="5"/>
+      <c r="X752" s="5"/>
+      <c r="Y752" s="5"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E753" s="5"/>
+      <c r="F753" s="5"/>
+      <c r="G753" s="5"/>
+      <c r="H753" s="5"/>
+      <c r="I753" s="5"/>
+      <c r="J753" s="5"/>
+      <c r="K753" s="5"/>
+      <c r="L753" s="5"/>
+      <c r="M753" s="5"/>
+      <c r="N753" s="5"/>
+      <c r="O753" s="5"/>
+      <c r="P753" s="5"/>
+      <c r="Q753" s="5"/>
+      <c r="R753" s="5"/>
+      <c r="S753" s="5"/>
+      <c r="T753" s="5"/>
+      <c r="U753" s="5"/>
+      <c r="V753" s="5"/>
+      <c r="W753" s="5"/>
+      <c r="X753" s="5"/>
+      <c r="Y753" s="5"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E754" s="5"/>
+      <c r="F754" s="5"/>
+      <c r="G754" s="5"/>
+      <c r="H754" s="5"/>
+      <c r="I754" s="5"/>
+      <c r="J754" s="5"/>
+      <c r="K754" s="5"/>
+      <c r="L754" s="5"/>
+      <c r="M754" s="5"/>
+      <c r="N754" s="5"/>
+      <c r="O754" s="5"/>
+      <c r="P754" s="5"/>
+      <c r="Q754" s="5"/>
+      <c r="R754" s="5"/>
+      <c r="S754" s="5"/>
+      <c r="T754" s="5"/>
+      <c r="U754" s="5"/>
+      <c r="V754" s="5"/>
+      <c r="W754" s="5"/>
+      <c r="X754" s="5"/>
+      <c r="Y754" s="5"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E755" s="5"/>
+      <c r="F755" s="5"/>
+      <c r="G755" s="5"/>
+      <c r="H755" s="5"/>
+      <c r="I755" s="5"/>
+      <c r="J755" s="5"/>
+      <c r="K755" s="5"/>
+      <c r="L755" s="5"/>
+      <c r="M755" s="5"/>
+      <c r="N755" s="5"/>
+      <c r="O755" s="5"/>
+      <c r="P755" s="5"/>
+      <c r="Q755" s="5"/>
+      <c r="R755" s="5"/>
+      <c r="S755" s="5"/>
+      <c r="T755" s="5"/>
+      <c r="U755" s="5"/>
+      <c r="V755" s="5"/>
+      <c r="W755" s="5"/>
+      <c r="X755" s="5"/>
+      <c r="Y755" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -25527,10 +26173,10 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
@@ -25539,10 +26185,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>53</v>
@@ -25550,23 +26196,23 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20210124001</v>
@@ -25574,15 +26220,15 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>

--- a/odkx/forms/hh_member.xlsx
+++ b/odkx/forms/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="514">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1514,6 +1514,21 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -1533,6 +1548,24 @@
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1854,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.64453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.7"/>
   </cols>
@@ -2872,7 +2905,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.64453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.4"/>
@@ -4187,11 +4220,11 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.64453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="11.39"/>
   </cols>
   <sheetData>
@@ -7981,11 +8014,11 @@
   </sheetPr>
   <dimension ref="A1:Y755"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.64453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -26170,17 +26203,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.64453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="8.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26190,29 +26229,44 @@
       <c r="B1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>53</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20210124001</v>
@@ -26220,23 +26274,68 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/odkx/forms/hh_member.xlsx
+++ b/odkx/forms/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="532">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1268,6 +1268,9 @@
     <t xml:space="preserve">valuesList</t>
   </si>
   <si>
+    <t xml:space="preserve">isSessionVariable</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assigned by household form</t>
   </si>
   <si>
@@ -1281,6 +1284,30 @@
   </si>
   <si>
     <t xml:space="preserve">hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_new_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_snake</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
@@ -1870,7 +1897,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.7"/>
   </cols>
@@ -2917,24 +2944,24 @@
   </sheetPr>
   <dimension ref="A1:M1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.65625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="42.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="13" style="0" width="11.39"/>
   </cols>
   <sheetData>
@@ -4292,7 +4319,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.65625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -8084,19 +8111,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y755"/>
+  <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.65625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="5" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="6" style="0" width="8.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8112,7 +8140,9 @@
       <c r="D1" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="0" t="s">
+        <v>414</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8136,13 +8166,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8168,10 +8198,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -8197,10 +8227,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -8225,16 +8255,15 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -8257,11 +8286,11 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
+      <c r="B6" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -8286,10 +8315,10 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="4"/>
@@ -8315,14 +8344,11 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>29</v>
+      <c r="B8" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -8347,10 +8373,10 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="4"/>
@@ -8376,14 +8402,11 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>29</v>
+      <c r="B10" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -8408,10 +8431,10 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="4"/>
@@ -8437,14 +8460,11 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>29</v>
+      <c r="B12" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -8469,11 +8489,14 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>428</v>
+      </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -8499,13 +8522,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -8531,13 +8551,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -8563,13 +8580,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -8595,10 +8612,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -8623,17 +8640,14 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>50</v>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -8658,11 +8672,11 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>423</v>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -8687,11 +8701,14 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -8716,14 +8733,11 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>189</v>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -8748,14 +8762,14 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -8780,14 +8794,14 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -8812,17 +8826,14 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -8847,11 +8858,11 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>423</v>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -8876,14 +8887,17 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
+      <c r="B26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -8908,11 +8922,11 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>423</v>
+      <c r="B27" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -8937,10 +8951,10 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="4"/>
@@ -8966,14 +8980,14 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -8998,14 +9012,14 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>50</v>
+      <c r="B30" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -9030,17 +9044,14 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -9065,11 +9076,17 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>423</v>
+      <c r="B32" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>263</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -9094,11 +9111,11 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>24</v>
+      <c r="C33" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -9123,14 +9140,14 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>50</v>
+      <c r="C34" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -9155,14 +9172,11 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>219</v>
+      <c r="C35" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -9187,14 +9201,11 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>71</v>
+      <c r="C36" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -9219,14 +9230,14 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>28</v>
+      <c r="C37" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -9251,17 +9262,14 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -9286,14 +9294,17 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>28</v>
+      <c r="C39" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -9318,14 +9329,11 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="B40" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>24</v>
+      <c r="C40" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -9350,14 +9358,11 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>268</v>
+      <c r="B41" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -9382,14 +9387,14 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -9414,11 +9419,14 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>24</v>
+      <c r="B43" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -9443,14 +9451,14 @@
       <c r="Y43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>28</v>
+      <c r="B44" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -9475,14 +9483,14 @@
       <c r="Y44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -9507,11 +9515,17 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>18</v>
+      <c r="C46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -9536,14 +9550,14 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>50</v>
+      <c r="C47" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -9571,14 +9585,11 @@
       <c r="A48" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>66</v>
+      <c r="C48" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -9603,14 +9614,14 @@
       <c r="Y48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>50</v>
+      <c r="C49" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -9635,14 +9646,14 @@
       <c r="Y49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -9667,11 +9678,11 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>459</v>
+      <c r="C51" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -9696,14 +9707,14 @@
       <c r="Y51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>50</v>
+      <c r="B52" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -9728,11 +9739,14 @@
       <c r="Y52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>459</v>
+      <c r="B53" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -9757,11 +9771,11 @@
       <c r="Y53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>459</v>
+      <c r="B54" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -9786,14 +9800,14 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -9818,6 +9832,9 @@
       <c r="Y55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>463</v>
+      </c>
       <c r="B56" s="11" t="s">
         <v>464</v>
       </c>
@@ -9825,7 +9842,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>324</v>
+        <v>66</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -9851,13 +9868,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="11" t="s">
-        <v>224</v>
+        <v>465</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -9883,13 +9900,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>466</v>
+        <v>50</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>467</v>
+        <v>66</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -9915,13 +9932,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>386</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -9950,10 +9964,10 @@
         <v>469</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -9982,7 +9996,7 @@
         <v>470</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>18</v>
+        <v>468</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -10011,10 +10025,7 @@
         <v>471</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>71</v>
+        <v>468</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -10043,10 +10054,10 @@
         <v>472</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -10075,7 +10086,10 @@
         <v>473</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>324</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -10101,13 +10115,13 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="11" t="s">
-        <v>474</v>
+        <v>224</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -10133,10 +10147,13 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>18</v>
+      <c r="D66" s="0" t="s">
+        <v>476</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -10162,13 +10179,13 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>66</v>
+        <v>386</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -10194,13 +10211,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -10226,7 +10243,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>18</v>
@@ -10255,7 +10272,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>50</v>
@@ -10287,13 +10304,13 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -10319,13 +10336,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -10351,13 +10365,13 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -10383,13 +10397,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -10415,13 +10426,13 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -10447,13 +10458,13 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -10479,13 +10490,10 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -10511,13 +10519,13 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -10543,13 +10551,13 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -10575,13 +10583,13 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -10607,13 +10615,13 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -10639,13 +10647,13 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -10671,13 +10679,13 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -10703,10 +10711,13 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -10732,13 +10743,13 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -10764,13 +10775,13 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="11" t="s">
-        <v>371</v>
+        <v>496</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>371</v>
+        <v>72</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -10796,13 +10807,13 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="11" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>365</v>
+        <v>246</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -10828,13 +10839,13 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -10860,13 +10871,13 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="11" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -10892,13 +10903,13 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="11" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -10924,13 +10935,13 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="11" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -10956,13 +10967,10 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="11" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -10988,13 +10996,13 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="11" t="s">
-        <v>373</v>
+        <v>503</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -11020,13 +11028,13 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="11" t="s">
-        <v>501</v>
+        <v>371</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -11052,10 +11060,13 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>365</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -11080,6 +11091,15 @@
       <c r="Y95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>101</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -11103,6 +11123,15 @@
       <c r="Y96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>360</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -11126,6 +11155,15 @@
       <c r="Y97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>372</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -11149,6 +11187,15 @@
       <c r="Y98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>119</v>
+      </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -11172,6 +11219,15 @@
       <c r="Y99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -11195,6 +11251,15 @@
       <c r="Y100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>373</v>
+      </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -11218,6 +11283,15 @@
       <c r="Y101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -11241,6 +11315,12 @@
       <c r="Y102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -26006,7 +26086,7 @@
       <c r="X744" s="4"/>
       <c r="Y744" s="4"/>
     </row>
-    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
@@ -26029,7 +26109,7 @@
       <c r="X745" s="4"/>
       <c r="Y745" s="4"/>
     </row>
-    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
@@ -26052,7 +26132,7 @@
       <c r="X746" s="4"/>
       <c r="Y746" s="4"/>
     </row>
-    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
@@ -26075,7 +26155,7 @@
       <c r="X747" s="4"/>
       <c r="Y747" s="4"/>
     </row>
-    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
@@ -26098,7 +26178,7 @@
       <c r="X748" s="4"/>
       <c r="Y748" s="4"/>
     </row>
-    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
@@ -26121,7 +26201,7 @@
       <c r="X749" s="4"/>
       <c r="Y749" s="4"/>
     </row>
-    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
@@ -26144,7 +26224,7 @@
       <c r="X750" s="4"/>
       <c r="Y750" s="4"/>
     </row>
-    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -26167,7 +26247,7 @@
       <c r="X751" s="4"/>
       <c r="Y751" s="4"/>
     </row>
-    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
@@ -26259,6 +26339,190 @@
       <c r="X755" s="4"/>
       <c r="Y755" s="4"/>
     </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E756" s="4"/>
+      <c r="F756" s="4"/>
+      <c r="G756" s="4"/>
+      <c r="H756" s="4"/>
+      <c r="I756" s="4"/>
+      <c r="J756" s="4"/>
+      <c r="K756" s="4"/>
+      <c r="L756" s="4"/>
+      <c r="M756" s="4"/>
+      <c r="N756" s="4"/>
+      <c r="O756" s="4"/>
+      <c r="P756" s="4"/>
+      <c r="Q756" s="4"/>
+      <c r="R756" s="4"/>
+      <c r="S756" s="4"/>
+      <c r="T756" s="4"/>
+      <c r="U756" s="4"/>
+      <c r="V756" s="4"/>
+      <c r="W756" s="4"/>
+      <c r="X756" s="4"/>
+      <c r="Y756" s="4"/>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E757" s="4"/>
+      <c r="F757" s="4"/>
+      <c r="G757" s="4"/>
+      <c r="H757" s="4"/>
+      <c r="I757" s="4"/>
+      <c r="J757" s="4"/>
+      <c r="K757" s="4"/>
+      <c r="L757" s="4"/>
+      <c r="M757" s="4"/>
+      <c r="N757" s="4"/>
+      <c r="O757" s="4"/>
+      <c r="P757" s="4"/>
+      <c r="Q757" s="4"/>
+      <c r="R757" s="4"/>
+      <c r="S757" s="4"/>
+      <c r="T757" s="4"/>
+      <c r="U757" s="4"/>
+      <c r="V757" s="4"/>
+      <c r="W757" s="4"/>
+      <c r="X757" s="4"/>
+      <c r="Y757" s="4"/>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E758" s="4"/>
+      <c r="F758" s="4"/>
+      <c r="G758" s="4"/>
+      <c r="H758" s="4"/>
+      <c r="I758" s="4"/>
+      <c r="J758" s="4"/>
+      <c r="K758" s="4"/>
+      <c r="L758" s="4"/>
+      <c r="M758" s="4"/>
+      <c r="N758" s="4"/>
+      <c r="O758" s="4"/>
+      <c r="P758" s="4"/>
+      <c r="Q758" s="4"/>
+      <c r="R758" s="4"/>
+      <c r="S758" s="4"/>
+      <c r="T758" s="4"/>
+      <c r="U758" s="4"/>
+      <c r="V758" s="4"/>
+      <c r="W758" s="4"/>
+      <c r="X758" s="4"/>
+      <c r="Y758" s="4"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E759" s="4"/>
+      <c r="F759" s="4"/>
+      <c r="G759" s="4"/>
+      <c r="H759" s="4"/>
+      <c r="I759" s="4"/>
+      <c r="J759" s="4"/>
+      <c r="K759" s="4"/>
+      <c r="L759" s="4"/>
+      <c r="M759" s="4"/>
+      <c r="N759" s="4"/>
+      <c r="O759" s="4"/>
+      <c r="P759" s="4"/>
+      <c r="Q759" s="4"/>
+      <c r="R759" s="4"/>
+      <c r="S759" s="4"/>
+      <c r="T759" s="4"/>
+      <c r="U759" s="4"/>
+      <c r="V759" s="4"/>
+      <c r="W759" s="4"/>
+      <c r="X759" s="4"/>
+      <c r="Y759" s="4"/>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E760" s="4"/>
+      <c r="F760" s="4"/>
+      <c r="G760" s="4"/>
+      <c r="H760" s="4"/>
+      <c r="I760" s="4"/>
+      <c r="J760" s="4"/>
+      <c r="K760" s="4"/>
+      <c r="L760" s="4"/>
+      <c r="M760" s="4"/>
+      <c r="N760" s="4"/>
+      <c r="O760" s="4"/>
+      <c r="P760" s="4"/>
+      <c r="Q760" s="4"/>
+      <c r="R760" s="4"/>
+      <c r="S760" s="4"/>
+      <c r="T760" s="4"/>
+      <c r="U760" s="4"/>
+      <c r="V760" s="4"/>
+      <c r="W760" s="4"/>
+      <c r="X760" s="4"/>
+      <c r="Y760" s="4"/>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E761" s="4"/>
+      <c r="F761" s="4"/>
+      <c r="G761" s="4"/>
+      <c r="H761" s="4"/>
+      <c r="I761" s="4"/>
+      <c r="J761" s="4"/>
+      <c r="K761" s="4"/>
+      <c r="L761" s="4"/>
+      <c r="M761" s="4"/>
+      <c r="N761" s="4"/>
+      <c r="O761" s="4"/>
+      <c r="P761" s="4"/>
+      <c r="Q761" s="4"/>
+      <c r="R761" s="4"/>
+      <c r="S761" s="4"/>
+      <c r="T761" s="4"/>
+      <c r="U761" s="4"/>
+      <c r="V761" s="4"/>
+      <c r="W761" s="4"/>
+      <c r="X761" s="4"/>
+      <c r="Y761" s="4"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E762" s="4"/>
+      <c r="F762" s="4"/>
+      <c r="G762" s="4"/>
+      <c r="H762" s="4"/>
+      <c r="I762" s="4"/>
+      <c r="J762" s="4"/>
+      <c r="K762" s="4"/>
+      <c r="L762" s="4"/>
+      <c r="M762" s="4"/>
+      <c r="N762" s="4"/>
+      <c r="O762" s="4"/>
+      <c r="P762" s="4"/>
+      <c r="Q762" s="4"/>
+      <c r="R762" s="4"/>
+      <c r="S762" s="4"/>
+      <c r="T762" s="4"/>
+      <c r="U762" s="4"/>
+      <c r="V762" s="4"/>
+      <c r="W762" s="4"/>
+      <c r="X762" s="4"/>
+      <c r="Y762" s="4"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E763" s="4"/>
+      <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
+      <c r="H763" s="4"/>
+      <c r="I763" s="4"/>
+      <c r="J763" s="4"/>
+      <c r="K763" s="4"/>
+      <c r="L763" s="4"/>
+      <c r="M763" s="4"/>
+      <c r="N763" s="4"/>
+      <c r="O763" s="4"/>
+      <c r="P763" s="4"/>
+      <c r="Q763" s="4"/>
+      <c r="R763" s="4"/>
+      <c r="S763" s="4"/>
+      <c r="T763" s="4"/>
+      <c r="U763" s="4"/>
+      <c r="V763" s="4"/>
+      <c r="W763" s="4"/>
+      <c r="X763" s="4"/>
+      <c r="Y763" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -26281,7 +26545,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -26296,49 +26560,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20210124001</v>
@@ -26346,21 +26610,21 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -26368,44 +26632,44 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/odkx/forms/hh_member.xlsx
+++ b/odkx/forms/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1330">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1002,6 +1002,9 @@
     <t xml:space="preserve">new_member_move_in_date</t>
   </si>
   <si>
+    <t xml:space="preserve">birth_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">new_member_move_in_enter</t>
   </si>
   <si>
@@ -2977,6 +2980,12 @@
   </si>
   <si>
     <t xml:space="preserve">Jina la ukoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_hh_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section to be filled out for households that were not part of the minicensus</t>
   </si>
   <si>
     <t xml:space="preserve">err_no_consent</t>
@@ -4321,7 +4330,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.7"/>
   </cols>
@@ -5372,7 +5381,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -6750,7 +6759,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -10536,11 +10545,11 @@
   </sheetPr>
   <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -11756,7 +11765,7 @@
         <v>324</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -11782,7 +11791,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>26</v>
@@ -11811,7 +11820,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>52</v>
@@ -11843,7 +11852,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>52</v>
@@ -11875,7 +11884,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>52</v>
@@ -11907,7 +11916,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>30</v>
@@ -11939,10 +11948,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>52</v>
@@ -11974,7 +11983,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>30</v>
@@ -12006,10 +12015,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>26</v>
@@ -12038,7 +12047,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>30</v>
@@ -12070,7 +12079,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>52</v>
@@ -12102,7 +12111,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>26</v>
@@ -12131,7 +12140,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>30</v>
@@ -12163,7 +12172,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>30</v>
@@ -12195,7 +12204,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>20</v>
@@ -12224,7 +12233,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>52</v>
@@ -12256,10 +12265,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>52</v>
@@ -12291,7 +12300,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>52</v>
@@ -12323,7 +12332,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>52</v>
@@ -12355,10 +12364,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -12384,7 +12393,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>52</v>
@@ -12416,10 +12425,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -12445,10 +12454,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -12474,7 +12483,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>52</v>
@@ -12506,7 +12515,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>52</v>
@@ -12570,13 +12579,13 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -12602,7 +12611,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>30</v>
@@ -12634,7 +12643,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>30</v>
@@ -12666,7 +12675,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>20</v>
@@ -12695,7 +12704,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>52</v>
@@ -12727,7 +12736,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>30</v>
@@ -12759,7 +12768,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>20</v>
@@ -12788,7 +12797,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>30</v>
@@ -12820,7 +12829,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>20</v>
@@ -12849,7 +12858,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>52</v>
@@ -12881,7 +12890,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>30</v>
@@ -12913,7 +12922,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>20</v>
@@ -12942,7 +12951,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>52</v>
@@ -12974,7 +12983,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>52</v>
@@ -13006,7 +13015,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>52</v>
@@ -13038,7 +13047,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>52</v>
@@ -13070,7 +13079,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>30</v>
@@ -13102,7 +13111,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>30</v>
@@ -13134,7 +13143,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>52</v>
@@ -13166,7 +13175,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>52</v>
@@ -13198,7 +13207,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>52</v>
@@ -13230,7 +13239,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>52</v>
@@ -13262,7 +13271,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>52</v>
@@ -13294,7 +13303,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>52</v>
@@ -13326,7 +13335,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>52</v>
@@ -13358,7 +13367,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>52</v>
@@ -13390,7 +13399,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>26</v>
@@ -13419,7 +13428,7 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>52</v>
@@ -13483,7 +13492,7 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>52</v>
@@ -13515,7 +13524,7 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>30</v>
@@ -13547,7 +13556,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>52</v>
@@ -13579,7 +13588,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>52</v>
@@ -13611,7 +13620,7 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>30</v>
@@ -13643,7 +13652,7 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>52</v>
@@ -13707,7 +13716,7 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>52</v>
@@ -13739,7 +13748,7 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>26</v>
@@ -28968,7 +28977,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -28983,71 +28992,71 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210204001</v>
+        <v>20210206001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -29055,44 +29064,44 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30102,32 +30111,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D319"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A225" activeCellId="0" sqref="A225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30135,13 +30144,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30152,10 +30161,10 @@
         <v>117</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30163,13 +30172,13 @@
         <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30177,13 +30186,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30191,13 +30200,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30205,13 +30214,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30219,13 +30228,13 @@
         <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30233,27 +30242,27 @@
         <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30264,13 +30273,13 @@
         <v>75</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30278,13 +30287,13 @@
         <v>76</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30292,13 +30301,13 @@
         <v>77</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30306,13 +30315,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30320,13 +30329,13 @@
         <v>79</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30334,13 +30343,13 @@
         <v>80</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30348,13 +30357,13 @@
         <v>81</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30362,13 +30371,13 @@
         <v>82</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30376,13 +30385,13 @@
         <v>83</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30390,13 +30399,13 @@
         <v>84</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30404,13 +30413,13 @@
         <v>87</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30421,10 +30430,10 @@
         <v>88</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30432,13 +30441,13 @@
         <v>89</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30446,13 +30455,13 @@
         <v>90</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30463,10 +30472,10 @@
         <v>91</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30477,10 +30486,10 @@
         <v>92</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30491,10 +30500,10 @@
         <v>93</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30502,13 +30511,13 @@
         <v>94</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30516,13 +30525,13 @@
         <v>95</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30530,13 +30539,13 @@
         <v>96</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30547,10 +30556,10 @@
         <v>97</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30558,13 +30567,13 @@
         <v>99</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30572,13 +30581,13 @@
         <v>100</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30586,13 +30595,13 @@
         <v>105</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30600,13 +30609,13 @@
         <v>106</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30614,13 +30623,13 @@
         <v>107</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30628,13 +30637,13 @@
         <v>108</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30642,13 +30651,13 @@
         <v>110</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30656,13 +30665,13 @@
         <v>111</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30670,13 +30679,13 @@
         <v>112</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30684,13 +30693,13 @@
         <v>113</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30698,13 +30707,13 @@
         <v>115</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30712,13 +30721,13 @@
         <v>116</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30726,13 +30735,13 @@
         <v>119</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30743,10 +30752,10 @@
         <v>120</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30754,13 +30763,13 @@
         <v>121</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30768,13 +30777,13 @@
         <v>122</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30782,13 +30791,13 @@
         <v>123</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30799,10 +30808,10 @@
         <v>124</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30816,7 +30825,7 @@
         <v>125</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30830,7 +30839,7 @@
         <v>126</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30841,10 +30850,10 @@
         <v>127</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30852,13 +30861,13 @@
         <v>128</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30866,13 +30875,13 @@
         <v>129</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30886,7 +30895,7 @@
         <v>130</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30897,10 +30906,10 @@
         <v>131</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30911,10 +30920,10 @@
         <v>133</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30925,10 +30934,10 @@
         <v>134</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30936,13 +30945,13 @@
         <v>135</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30950,13 +30959,13 @@
         <v>136</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30967,10 +30976,10 @@
         <v>137</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30981,10 +30990,10 @@
         <v>138</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30992,13 +31001,13 @@
         <v>142</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31006,7 +31015,7 @@
         <v>143</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31014,13 +31023,13 @@
         <v>144</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31028,13 +31037,13 @@
         <v>146</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31042,7 +31051,7 @@
         <v>147</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -31052,13 +31061,13 @@
         <v>148</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31066,13 +31075,13 @@
         <v>149</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31080,13 +31089,13 @@
         <v>151</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31097,7 +31106,7 @@
         <v>152</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>152</v>
@@ -31108,13 +31117,13 @@
         <v>153</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31122,13 +31131,13 @@
         <v>154</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31139,10 +31148,10 @@
         <v>155</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31150,13 +31159,13 @@
         <v>156</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31164,13 +31173,13 @@
         <v>157</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31178,13 +31187,13 @@
         <v>158</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31192,13 +31201,13 @@
         <v>159</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31206,13 +31215,13 @@
         <v>160</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31220,13 +31229,13 @@
         <v>161</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31234,13 +31243,13 @@
         <v>163</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31248,13 +31257,13 @@
         <v>164</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31265,10 +31274,10 @@
         <v>166</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31279,10 +31288,10 @@
         <v>167</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31293,10 +31302,10 @@
         <v>168</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31307,10 +31316,10 @@
         <v>169</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31321,10 +31330,10 @@
         <v>170</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31338,7 +31347,7 @@
         <v>171</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31349,10 +31358,10 @@
         <v>172</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31363,10 +31372,10 @@
         <v>173</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31377,10 +31386,10 @@
         <v>174</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31391,10 +31400,10 @@
         <v>175</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31405,10 +31414,10 @@
         <v>177</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31419,10 +31428,10 @@
         <v>178</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31433,10 +31442,10 @@
         <v>179</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31447,10 +31456,10 @@
         <v>180</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31458,13 +31467,13 @@
         <v>182</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31472,13 +31481,13 @@
         <v>183</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31486,13 +31495,13 @@
         <v>185</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31500,13 +31509,13 @@
         <v>186</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31514,13 +31523,13 @@
         <v>187</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31531,10 +31540,10 @@
         <v>189</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31545,10 +31554,10 @@
         <v>190</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31559,10 +31568,10 @@
         <v>191</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31573,10 +31582,10 @@
         <v>192</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31587,10 +31596,10 @@
         <v>194</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31601,10 +31610,10 @@
         <v>195</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31615,10 +31624,10 @@
         <v>196</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31626,13 +31635,13 @@
         <v>198</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31640,13 +31649,13 @@
         <v>199</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31654,13 +31663,13 @@
         <v>200</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31668,13 +31677,13 @@
         <v>201</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31682,13 +31691,13 @@
         <v>202</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31696,13 +31705,13 @@
         <v>203</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31710,13 +31719,13 @@
         <v>204</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31724,13 +31733,13 @@
         <v>205</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31738,13 +31747,13 @@
         <v>206</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31752,13 +31761,13 @@
         <v>207</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31766,13 +31775,13 @@
         <v>208</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31780,13 +31789,13 @@
         <v>209</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31794,13 +31803,13 @@
         <v>210</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31808,13 +31817,13 @@
         <v>211</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31822,13 +31831,13 @@
         <v>213</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31836,13 +31845,13 @@
         <v>214</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31853,7 +31862,7 @@
         <v>216</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>216</v>
@@ -31867,10 +31876,10 @@
         <v>217</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31881,10 +31890,10 @@
         <v>218</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31892,13 +31901,13 @@
         <v>219</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31909,10 +31918,10 @@
         <v>221</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31923,10 +31932,10 @@
         <v>222</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31934,13 +31943,13 @@
         <v>223</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31951,10 +31960,10 @@
         <v>224</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31965,10 +31974,10 @@
         <v>225</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31976,13 +31985,13 @@
         <v>226</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31990,13 +31999,13 @@
         <v>227</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32004,13 +32013,13 @@
         <v>229</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32018,13 +32027,13 @@
         <v>230</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32032,13 +32041,13 @@
         <v>231</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32046,13 +32055,13 @@
         <v>232</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32060,13 +32069,13 @@
         <v>234</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32074,13 +32083,13 @@
         <v>235</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32088,13 +32097,13 @@
         <v>236</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32102,13 +32111,13 @@
         <v>237</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32116,13 +32125,13 @@
         <v>238</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32130,13 +32139,13 @@
         <v>239</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32144,13 +32153,13 @@
         <v>240</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32158,13 +32167,13 @@
         <v>241</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32172,13 +32181,13 @@
         <v>242</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32186,13 +32195,13 @@
         <v>243</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32200,13 +32209,13 @@
         <v>244</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32214,13 +32223,13 @@
         <v>245</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32228,13 +32237,13 @@
         <v>246</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32242,13 +32251,13 @@
         <v>247</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32256,13 +32265,13 @@
         <v>248</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32270,13 +32279,13 @@
         <v>250</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32284,13 +32293,13 @@
         <v>251</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32301,10 +32310,10 @@
         <v>253</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32315,10 +32324,10 @@
         <v>254</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32329,10 +32338,10 @@
         <v>255</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32343,10 +32352,10 @@
         <v>256</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32357,10 +32366,10 @@
         <v>258</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32371,10 +32380,10 @@
         <v>259</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32385,10 +32394,10 @@
         <v>260</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32399,10 +32408,10 @@
         <v>261</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32413,10 +32422,10 @@
         <v>262</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32441,10 +32450,10 @@
         <v>267</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32466,13 +32475,13 @@
         <v>269</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32486,7 +32495,7 @@
         <v>270</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32494,13 +32503,13 @@
         <v>271</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32511,7 +32520,7 @@
         <v>272</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>272</v>
@@ -32525,10 +32534,10 @@
         <v>273</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32539,7 +32548,7 @@
         <v>274</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D175" s="12" t="s">
         <v>274</v>
@@ -32553,7 +32562,7 @@
         <v>275</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D176" s="12" t="s">
         <v>275</v>
@@ -32564,13 +32573,13 @@
         <v>277</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32581,10 +32590,10 @@
         <v>278</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32592,13 +32601,13 @@
         <v>279</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32609,10 +32618,10 @@
         <v>280</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32623,10 +32632,10 @@
         <v>281</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32634,13 +32643,13 @@
         <v>282</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32651,10 +32660,10 @@
         <v>283</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32662,13 +32671,13 @@
         <v>284</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32676,13 +32685,13 @@
         <v>285</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32690,13 +32699,13 @@
         <v>286</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32704,13 +32713,13 @@
         <v>287</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32718,13 +32727,13 @@
         <v>288</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32732,13 +32741,13 @@
         <v>289</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32746,13 +32755,13 @@
         <v>290</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32762,72 +32771,72 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32837,100 +32846,100 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32941,13 +32950,13 @@
         <v>28</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32955,13 +32964,13 @@
         <v>34</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32969,13 +32978,13 @@
         <v>38</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32983,15 +32992,15 @@
         <v>59</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32999,145 +33008,145 @@
         <v>311</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33145,80 +33154,74 @@
         <v>22</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B232" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="C232" s="0" t="s">
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="B231" s="0" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>999</v>
@@ -33232,7 +33235,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>1002</v>
@@ -33246,7 +33249,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>1005</v>
@@ -33260,7 +33263,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>1008</v>
@@ -33274,7 +33277,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>1011</v>
@@ -33288,7 +33291,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>1014</v>
@@ -33300,152 +33303,152 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="C239" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="D239" s="0" t="s">
         <v>1019</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="C240" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="D240" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B241" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="C241" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="D241" s="0" t="s">
         <v>1027</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B242" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="C242" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="D242" s="0" t="s">
         <v>1031</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>1033</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="C243" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="D243" s="0" t="s">
         <v>1035</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>1037</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="C244" s="0" t="s">
         <v>1038</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="D244" s="0" t="s">
         <v>1039</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B245" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="C245" s="0" t="s">
         <v>1042</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="D245" s="0" t="s">
         <v>1043</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="C246" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="D246" s="0" t="s">
         <v>1047</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B247" s="0" t="s">
         <v>1049</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="C247" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="D247" s="0" t="s">
         <v>1051</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>1053</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="C248" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="D248" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>1014</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>1058</v>
@@ -33459,955 +33462,969 @@
         <v>1060</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>1061</v>
+        <v>1017</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>1061</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>1064</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="C252" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="D252" s="0" t="s">
         <v>1068</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="C253" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="D253" s="0" t="s">
         <v>1072</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="C254" s="0" t="s">
         <v>1075</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="D254" s="0" t="s">
         <v>1076</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="C255" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="D255" s="0" t="s">
         <v>1080</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="C256" s="0" t="s">
         <v>1083</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="D256" s="0" t="s">
         <v>1084</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>1086</v>
       </c>
-      <c r="B257" s="0" t="s">
-        <v>1014</v>
-      </c>
       <c r="C257" s="0" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>1088</v>
+        <v>1017</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>1089</v>
+        <v>1061</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>1090</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>1091</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="C259" s="0" t="s">
         <v>1092</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="D259" s="0" t="s">
         <v>1093</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B260" s="0" t="s">
         <v>1095</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="C260" s="0" t="s">
         <v>1096</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="D260" s="0" t="s">
         <v>1097</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>1099</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="C261" s="0" t="s">
         <v>1100</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="D261" s="0" t="s">
         <v>1101</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B262" s="0" t="s">
         <v>1103</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="C262" s="0" t="s">
         <v>1104</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="D262" s="0" t="s">
         <v>1105</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B263" s="0" t="s">
         <v>1107</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="C263" s="0" t="s">
         <v>1108</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="D263" s="0" t="s">
         <v>1109</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>1111</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="C264" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="D264" s="0" t="s">
         <v>1113</v>
-      </c>
-      <c r="D264" s="0" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="C265" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="D265" s="0" t="s">
         <v>1117</v>
       </c>
-      <c r="D265" s="0" t="s">
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="B266" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="C266" s="0" t="s">
         <v>1120</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="D266" s="0" t="s">
         <v>1121</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>1123</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="C267" s="0" t="s">
         <v>1124</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="D267" s="0" t="s">
         <v>1125</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="C268" s="0" t="s">
         <v>1128</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="D268" s="0" t="s">
         <v>1129</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>1131</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="C269" s="0" t="s">
         <v>1132</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="D269" s="0" t="s">
         <v>1133</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>1135</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="C270" s="0" t="s">
         <v>1136</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="D270" s="0" t="s">
         <v>1137</v>
       </c>
-      <c r="D270" s="0" t="s">
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="B271" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="C271" s="0" t="s">
         <v>1140</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="D271" s="0" t="s">
         <v>1141</v>
       </c>
-      <c r="D272" s="0" t="s">
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12" t="s">
+      <c r="B273" s="0" t="s">
         <v>1143</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="C273" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="D273" s="0" t="s">
         <v>1145</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>1147</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="C274" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="C274" s="0" t="s">
+      <c r="D274" s="0" t="s">
         <v>1149</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="C275" s="0" t="s">
         <v>1152</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="D275" s="0" t="s">
         <v>1153</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>1155</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="C276" s="0" t="s">
         <v>1156</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="D276" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="D276" s="0" t="s">
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="12" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="B277" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="C277" s="0" t="s">
         <v>1160</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="D277" s="0" t="s">
         <v>1161</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>1163</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="C278" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="C278" s="0" t="s">
+      <c r="D278" s="0" t="s">
         <v>1165</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="C279" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="D279" s="0" t="s">
         <v>1169</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>1171</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="C280" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="D280" s="0" t="s">
         <v>1173</v>
-      </c>
-      <c r="D280" s="0" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="C281" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="D281" s="0" t="s">
         <v>1177</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>1179</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="C282" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="D282" s="0" t="s">
         <v>1181</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>1183</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="C283" s="0" t="s">
         <v>1184</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="D283" s="0" t="s">
         <v>1185</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>1187</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="C284" s="0" t="s">
         <v>1188</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="D284" s="0" t="s">
         <v>1189</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>1191</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="C285" s="0" t="s">
         <v>1192</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="D285" s="0" t="s">
         <v>1193</v>
-      </c>
-      <c r="D285" s="0" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C286" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="D286" s="0" t="s">
         <v>1197</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="C287" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="D287" s="0" t="s">
         <v>1201</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>1203</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="C288" s="0" t="s">
         <v>1204</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="D288" s="0" t="s">
         <v>1205</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B289" s="0" t="s">
         <v>1207</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="C289" s="0" t="s">
         <v>1208</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="D289" s="0" t="s">
         <v>1209</v>
-      </c>
-      <c r="D289" s="0" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="C290" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="D290" s="0" t="s">
         <v>1213</v>
-      </c>
-      <c r="D290" s="0" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="C291" s="0" t="s">
         <v>1216</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="D291" s="0" t="s">
         <v>1217</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>1219</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="C292" s="0" t="s">
         <v>1220</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="D292" s="0" t="s">
         <v>1221</v>
-      </c>
-      <c r="D292" s="0" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>1223</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="C293" s="0" t="s">
         <v>1224</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="D293" s="0" t="s">
         <v>1225</v>
-      </c>
-      <c r="D293" s="0" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B294" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="C294" s="0" t="s">
         <v>1228</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="D294" s="0" t="s">
         <v>1229</v>
-      </c>
-      <c r="D294" s="0" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="C295" s="0" t="s">
         <v>1232</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="D295" s="0" t="s">
         <v>1233</v>
-      </c>
-      <c r="D295" s="0" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>1235</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="C296" s="0" t="s">
         <v>1236</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="D296" s="0" t="s">
         <v>1237</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>1239</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="C297" s="0" t="s">
         <v>1240</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="D297" s="0" t="s">
         <v>1241</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>1243</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="C298" s="0" t="s">
         <v>1244</v>
       </c>
-      <c r="C298" s="0" t="s">
+      <c r="D298" s="0" t="s">
         <v>1245</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>1247</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="C299" s="0" t="s">
         <v>1248</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="D299" s="0" t="s">
         <v>1249</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>1251</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="C300" s="0" t="s">
         <v>1252</v>
       </c>
-      <c r="C300" s="0" t="s">
+      <c r="D300" s="0" t="s">
         <v>1253</v>
-      </c>
-      <c r="D300" s="0" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>1255</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="C301" s="0" t="s">
         <v>1256</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="D301" s="0" t="s">
         <v>1257</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="C302" s="0" t="s">
         <v>1260</v>
       </c>
-      <c r="C302" s="0" t="s">
+      <c r="D302" s="0" t="s">
         <v>1261</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="C303" s="0" t="s">
         <v>1264</v>
       </c>
-      <c r="C303" s="0" t="s">
+      <c r="D303" s="0" t="s">
         <v>1265</v>
-      </c>
-      <c r="D303" s="0" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>1267</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="C304" s="0" t="s">
         <v>1268</v>
       </c>
-      <c r="C304" s="0" t="s">
+      <c r="D304" s="0" t="s">
         <v>1269</v>
-      </c>
-      <c r="D304" s="0" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B305" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="C305" s="0" t="s">
         <v>1272</v>
       </c>
-      <c r="C305" s="0" t="s">
+      <c r="D305" s="0" t="s">
         <v>1273</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B306" s="0" t="s">
         <v>1275</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="C306" s="0" t="s">
         <v>1276</v>
       </c>
-      <c r="C306" s="0" t="s">
+      <c r="D306" s="0" t="s">
         <v>1277</v>
-      </c>
-      <c r="D306" s="0" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B307" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="C307" s="0" t="s">
         <v>1280</v>
       </c>
-      <c r="C307" s="0" t="s">
+      <c r="D307" s="0" t="s">
         <v>1281</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>1283</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="C308" s="0" t="s">
         <v>1284</v>
       </c>
-      <c r="C308" s="0" t="s">
+      <c r="D308" s="0" t="s">
         <v>1285</v>
-      </c>
-      <c r="D308" s="0" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="C309" s="0" t="s">
         <v>1288</v>
       </c>
-      <c r="C309" s="0" t="s">
+      <c r="D309" s="0" t="s">
         <v>1289</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B310" s="0" t="s">
         <v>1291</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="C310" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="C310" s="0" t="s">
+      <c r="D310" s="0" t="s">
         <v>1293</v>
-      </c>
-      <c r="D310" s="0" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B311" s="0" t="s">
         <v>1295</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="C311" s="0" t="s">
         <v>1296</v>
       </c>
-      <c r="C311" s="0" t="s">
+      <c r="D311" s="0" t="s">
         <v>1297</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B312" s="0" t="s">
         <v>1299</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="C312" s="0" t="s">
         <v>1300</v>
       </c>
-      <c r="C312" s="0" t="s">
+      <c r="D312" s="0" t="s">
         <v>1301</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B313" s="0" t="s">
         <v>1303</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="C313" s="0" t="s">
         <v>1304</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="D313" s="0" t="s">
         <v>1305</v>
-      </c>
-      <c r="D313" s="0" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B314" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="C314" s="0" t="s">
         <v>1308</v>
       </c>
-      <c r="C314" s="0" t="s">
+      <c r="D314" s="0" t="s">
         <v>1309</v>
-      </c>
-      <c r="D314" s="0" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B315" s="0" t="s">
         <v>1311</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="C315" s="0" t="s">
         <v>1312</v>
       </c>
-      <c r="C315" s="0" t="s">
+      <c r="D315" s="0" t="s">
         <v>1313</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B316" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="C316" s="0" t="s">
         <v>1316</v>
       </c>
-      <c r="C316" s="0" t="s">
+      <c r="D316" s="0" t="s">
         <v>1317</v>
-      </c>
-      <c r="D316" s="0" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B317" s="0" t="s">
         <v>1319</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="C317" s="0" t="s">
         <v>1320</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="D317" s="0" t="s">
         <v>1321</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B318" s="0" t="s">
         <v>1323</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="C318" s="0" t="s">
         <v>1324</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="D318" s="0" t="s">
         <v>1325</v>
       </c>
-      <c r="D318" s="0" t="s">
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
         <v>1326</v>
       </c>
+      <c r="B319" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>1329</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B272:D1048576 B1:D1 B206:D230 C65:D66 B232:D238 B242:D242 B245:D270">
+  <conditionalFormatting sqref="B273:D1048576 B1:D1 B206:D231 C65:D66 B233:D239 B243:D243 B246:D271">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
